--- a/swertres/excel_results_5.xlsx
+++ b/swertres/excel_results_5.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2096,68 +2164,68 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21 sun mar - 27 sat mar</t>
+          <t>07 wed apr - 10 sat apr</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
         <v>8</v>
       </c>
-      <c r="Q2" t="n">
-        <v>6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>15</v>
-      </c>
       <c r="S2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2166,68 +2234,68 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28 sun mar - 03 sat apr</t>
+          <t>11 sun apr - 17 sat apr</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
-        <v>23</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="M3" t="n">
+        <v>12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11</v>
+      </c>
+      <c r="U3" t="n">
         <v>14</v>
       </c>
-      <c r="I3" t="n">
+      <c r="V3" t="n">
         <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>9</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2236,41 +2304,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04 sun apr - 10 sat apr</t>
+          <t>18 sun apr - 24 sat apr</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
         <v>11</v>
@@ -2279,25 +2347,25 @@
         <v>9</v>
       </c>
       <c r="P4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="n">
         <v>9</v>
       </c>
-      <c r="Q4" t="n">
-        <v>8</v>
-      </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U4" t="n">
         <v>12</v>
       </c>
       <c r="V4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2306,68 +2374,68 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11 sun apr - 17 sat apr</t>
+          <t>25 sun apr - 01 sat may</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
         <v>12</v>
       </c>
-      <c r="J5" t="n">
-        <v>17</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>11</v>
+      </c>
+      <c r="R5" t="n">
+        <v>10</v>
+      </c>
+      <c r="S5" t="n">
+        <v>11</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10</v>
+      </c>
+      <c r="U5" t="n">
         <v>8</v>
       </c>
-      <c r="L5" t="n">
+      <c r="V5" t="n">
         <v>13</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R5" t="n">
-        <v>11</v>
-      </c>
-      <c r="S5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T5" t="n">
-        <v>11</v>
-      </c>
-      <c r="U5" t="n">
-        <v>14</v>
-      </c>
-      <c r="V5" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2376,68 +2444,68 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18 sun apr - 24 sat apr</t>
+          <t>02 sun may - 08 sat may</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
+        <v>32</v>
+      </c>
+      <c r="F6" t="n">
         <v>31</v>
-      </c>
-      <c r="F6" t="n">
-        <v>32</v>
       </c>
       <c r="G6" t="n">
         <v>19</v>
       </c>
       <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16</v>
+      </c>
+      <c r="K6" t="n">
         <v>12</v>
       </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11</v>
+      </c>
+      <c r="R6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12</v>
+      </c>
+      <c r="T6" t="n">
         <v>9</v>
       </c>
-      <c r="P6" t="n">
+      <c r="U6" t="n">
+        <v>9</v>
+      </c>
+      <c r="V6" t="n">
         <v>12</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>10</v>
-      </c>
-      <c r="T6" t="n">
-        <v>11</v>
-      </c>
-      <c r="U6" t="n">
-        <v>12</v>
-      </c>
-      <c r="V6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2446,68 +2514,68 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25 sun apr - 01 sat may</t>
+          <t>09 sun may - 15 sat may</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
+        <v>11</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" t="n">
         <v>8</v>
       </c>
-      <c r="I7" t="n">
+      <c r="O7" t="n">
+        <v>7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S7" t="n">
         <v>13</v>
       </c>
-      <c r="J7" t="n">
-        <v>20</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="T7" t="n">
+        <v>8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9</v>
+      </c>
+      <c r="V7" t="n">
         <v>12</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9</v>
-      </c>
-      <c r="M7" t="n">
-        <v>14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>9</v>
-      </c>
-      <c r="P7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>11</v>
-      </c>
-      <c r="R7" t="n">
-        <v>10</v>
-      </c>
-      <c r="S7" t="n">
-        <v>11</v>
-      </c>
-      <c r="T7" t="n">
-        <v>10</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2516,56 +2584,56 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02 sun may - 08 sat may</t>
+          <t>16 sun may - 22 sat may</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" t="n">
         <v>13</v>
       </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
         <v>16</v>
       </c>
-      <c r="K8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9</v>
-      </c>
-      <c r="M8" t="n">
-        <v>12</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>10</v>
-      </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S8" t="n">
         <v>12</v>
@@ -2574,10 +2642,10 @@
         <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2586,50 +2654,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09 sun may - 15 sat may</t>
+          <t>23 sun may - 29 sat may</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -2638,16 +2706,16 @@
         <v>11</v>
       </c>
       <c r="S9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2656,68 +2724,68 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16 sun may - 22 sat may</t>
+          <t>30 sun may - 05 sat jun</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M10" t="n">
+        <v>12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="n">
+        <v>11</v>
+      </c>
+      <c r="U10" t="n">
+        <v>7</v>
+      </c>
+      <c r="V10" t="n">
         <v>14</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>16</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>14</v>
-      </c>
-      <c r="S10" t="n">
-        <v>12</v>
-      </c>
-      <c r="T10" t="n">
-        <v>9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>11</v>
-      </c>
-      <c r="V10" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2726,51 +2794,51 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23 sun may - 29 sat may</t>
+          <t>06 sun jun - 12 sat jun</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G11" t="n">
+        <v>14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
         <v>20</v>
       </c>
-      <c r="H11" t="n">
-        <v>17</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>19</v>
-      </c>
       <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
         <v>8</v>
       </c>
-      <c r="L11" t="n">
+      <c r="P11" t="n">
         <v>13</v>
       </c>
-      <c r="M11" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>9</v>
-      </c>
-      <c r="P11" t="n">
-        <v>12</v>
-      </c>
       <c r="Q11" t="n">
         <v>10</v>
       </c>
@@ -2784,10 +2852,10 @@
         <v>10</v>
       </c>
       <c r="U11" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2796,68 +2864,68 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30 sun may - 05 sat jun</t>
+          <t>13 sun jun - 19 sat jun</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K12" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14</v>
+      </c>
+      <c r="R12" t="n">
         <v>7</v>
       </c>
-      <c r="L12" t="n">
-        <v>14</v>
-      </c>
-      <c r="M12" t="n">
-        <v>12</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>9</v>
-      </c>
-      <c r="R12" t="n">
-        <v>12</v>
-      </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2866,68 +2934,68 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>06 sun jun - 12 sat jun</t>
+          <t>20 sun jun - 26 sat jun</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
         <v>9</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>12</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
+        <v>9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>12</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
+        <v>13</v>
+      </c>
+      <c r="V13" t="n">
         <v>8</v>
-      </c>
-      <c r="P13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>10</v>
-      </c>
-      <c r="R13" t="n">
-        <v>11</v>
-      </c>
-      <c r="S13" t="n">
-        <v>11</v>
-      </c>
-      <c r="T13" t="n">
-        <v>10</v>
-      </c>
-      <c r="U13" t="n">
-        <v>8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2936,14 +3004,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13 sun jun - 19 sat jun</t>
+          <t>27 sun jun - 03 sat jul</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
         <v>35</v>
@@ -2952,52 +3020,52 @@
         <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11</v>
+      </c>
+      <c r="K14" t="n">
         <v>14</v>
       </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>17</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11</v>
-      </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
+        <v>9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="n">
         <v>14</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>7</v>
       </c>
-      <c r="S14" t="n">
-        <v>11</v>
-      </c>
-      <c r="T14" t="n">
-        <v>10</v>
-      </c>
       <c r="U14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3006,68 +3074,68 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20 sun jun - 26 sat jun</t>
+          <t>04 sun jul - 10 sat jul</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I15" t="n">
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>12</v>
+      </c>
+      <c r="R15" t="n">
         <v>9</v>
       </c>
-      <c r="P15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>9</v>
-      </c>
-      <c r="R15" t="n">
-        <v>12</v>
-      </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -3076,68 +3144,68 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27 sun jun - 03 sat jul</t>
+          <t>11 sun jul - 17 sat jul</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S16" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3146,68 +3214,68 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04 sun jul - 10 sat jul</t>
+          <t>18 sun jul - 24 sat jul</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H17" t="n">
+        <v>14</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16</v>
-      </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
+        <v>9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>14</v>
+      </c>
+      <c r="R17" t="n">
         <v>7</v>
       </c>
-      <c r="P17" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
+        <v>11</v>
+      </c>
+      <c r="T17" t="n">
+        <v>10</v>
+      </c>
+      <c r="U17" t="n">
         <v>12</v>
       </c>
-      <c r="R17" t="n">
+      <c r="V17" t="n">
         <v>9</v>
-      </c>
-      <c r="S17" t="n">
-        <v>14</v>
-      </c>
-      <c r="T17" t="n">
-        <v>7</v>
-      </c>
-      <c r="U17" t="n">
-        <v>10</v>
-      </c>
-      <c r="V17" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -3216,62 +3284,62 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11 sun jul - 17 sat jul</t>
+          <t>25 sun jul - 31 sat jul</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>17</v>
       </c>
       <c r="H18" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="n">
         <v>12</v>
       </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>18</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" t="n">
-        <v>11</v>
-      </c>
-      <c r="M18" t="n">
-        <v>13</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>10</v>
-      </c>
       <c r="R18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="U18" t="n">
         <v>11</v>
@@ -3286,68 +3354,68 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18 sun jul - 18 sun jul</t>
+          <t>01 sun aug - 04 wed aug</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
+        <v>21</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="n">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
+      <c r="I19" t="n">
         <v>6</v>
       </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S19" t="n">
         <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/swertres/excel_results_5.xlsx
+++ b/swertres/excel_results_5.xlsx
@@ -2164,29 +2164,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>07 wed apr - 10 sat apr</t>
+          <t>28 wed apr - 01 sat may</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>11</v>
@@ -2198,10 +2198,10 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>6</v>
@@ -2210,22 +2210,22 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" t="n">
         <v>4</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>8</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2234,38 +2234,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11 sun apr - 17 sat apr</t>
+          <t>02 sun may - 08 sat may</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" t="n">
         <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>29</v>
       </c>
       <c r="G3" t="n">
         <v>19</v>
       </c>
       <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" t="n">
         <v>15</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" t="n">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
-        <v>17</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
       <c r="L3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
         <v>12</v>
@@ -2274,28 +2274,28 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -2304,29 +2304,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18 sun apr - 24 sat apr</t>
+          <t>09 sun may - 15 sat may</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
+        <v>32</v>
+      </c>
+      <c r="F4" t="n">
         <v>31</v>
       </c>
-      <c r="F4" t="n">
-        <v>32</v>
-      </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
         <v>21</v>
@@ -2338,34 +2338,34 @@
         <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R4" t="n">
+        <v>11</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8</v>
+      </c>
+      <c r="U4" t="n">
         <v>9</v>
       </c>
-      <c r="P4" t="n">
+      <c r="V4" t="n">
         <v>12</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>12</v>
-      </c>
-      <c r="S4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U4" t="n">
-        <v>12</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25 sun apr - 01 sat may</t>
+          <t>16 sun may - 22 sat may</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -2390,22 +2390,22 @@
         <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="n">
         <v>13</v>
       </c>
-      <c r="J5" t="n">
-        <v>20</v>
-      </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
         <v>14</v>
@@ -2414,28 +2414,28 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
+        <v>16</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>14</v>
+      </c>
+      <c r="S5" t="n">
+        <v>12</v>
+      </c>
+      <c r="T5" t="n">
         <v>9</v>
       </c>
-      <c r="P5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>11</v>
-      </c>
-      <c r="R5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S5" t="n">
-        <v>11</v>
-      </c>
-      <c r="T5" t="n">
-        <v>10</v>
-      </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2444,68 +2444,68 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>02 sun may - 08 sat may</t>
+          <t>23 sun may - 29 sat may</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
         <v>19</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" t="n">
         <v>13</v>
       </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10</v>
+      </c>
+      <c r="U6" t="n">
         <v>16</v>
       </c>
-      <c r="K6" t="n">
-        <v>12</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9</v>
-      </c>
-      <c r="M6" t="n">
-        <v>12</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>11</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10</v>
-      </c>
-      <c r="S6" t="n">
-        <v>12</v>
-      </c>
-      <c r="T6" t="n">
-        <v>9</v>
-      </c>
-      <c r="U6" t="n">
-        <v>9</v>
-      </c>
       <c r="V6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2514,68 +2514,68 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09 sun may - 15 sat may</t>
+          <t>30 sun may - 05 sat jun</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U7" t="n">
         <v>7</v>
       </c>
-      <c r="P7" t="n">
+      <c r="V7" t="n">
         <v>14</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R7" t="n">
-        <v>11</v>
-      </c>
-      <c r="S7" t="n">
-        <v>13</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>9</v>
-      </c>
-      <c r="V7" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -2584,68 +2584,68 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16 sun may - 22 sat may</t>
+          <t>06 sun jun - 12 sat jun</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
         <v>20</v>
       </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" t="n">
         <v>13</v>
       </c>
-      <c r="K8" t="n">
-        <v>10</v>
-      </c>
-      <c r="L8" t="n">
-        <v>11</v>
-      </c>
-      <c r="M8" t="n">
-        <v>14</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>16</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
       <c r="Q8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -2654,57 +2654,57 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23 sun may - 29 sat may</t>
+          <t>13 sun jun - 19 sat jun</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11</v>
+      </c>
+      <c r="J9" t="n">
         <v>17</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>14</v>
+      </c>
+      <c r="R9" t="n">
         <v>7</v>
       </c>
-      <c r="J9" t="n">
-        <v>19</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>13</v>
-      </c>
-      <c r="M9" t="n">
-        <v>10</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>9</v>
-      </c>
-      <c r="P9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>10</v>
-      </c>
-      <c r="R9" t="n">
-        <v>11</v>
-      </c>
       <c r="S9" t="n">
         <v>11</v>
       </c>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -2724,50 +2724,50 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30 sun may - 05 sat jun</t>
+          <t>20 sun jun - 26 sat jun</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
       </c>
       <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" t="n">
         <v>13</v>
       </c>
-      <c r="J10" t="n">
-        <v>24</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7</v>
-      </c>
       <c r="L10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
+        <v>11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9</v>
+      </c>
+      <c r="P10" t="n">
         <v>12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>10</v>
-      </c>
-      <c r="P10" t="n">
-        <v>11</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
@@ -2782,10 +2782,10 @@
         <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2794,68 +2794,68 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>06 sun jun - 12 sat jun</t>
+          <t>27 sun jun - 03 sat jul</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>37</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35</v>
+      </c>
+      <c r="F11" t="n">
         <v>28</v>
       </c>
-      <c r="D11" t="n">
-        <v>35</v>
-      </c>
-      <c r="E11" t="n">
-        <v>29</v>
-      </c>
-      <c r="F11" t="n">
-        <v>34</v>
-      </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
         <v>15</v>
       </c>
       <c r="I11" t="n">
+        <v>17</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11</v>
+      </c>
+      <c r="K11" t="n">
         <v>14</v>
       </c>
-      <c r="J11" t="n">
-        <v>20</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11</v>
-      </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
+        <v>12</v>
+      </c>
+      <c r="N11" t="n">
         <v>9</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
+        <v>11</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
         <v>12</v>
       </c>
-      <c r="O11" t="n">
-        <v>8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>10</v>
-      </c>
-      <c r="R11" t="n">
-        <v>11</v>
-      </c>
       <c r="S11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13 sun jun - 19 sat jun</t>
+          <t>04 sun jul - 10 sat jul</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2874,52 +2874,52 @@
         <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
         <v>21</v>
       </c>
       <c r="H12" t="n">
+        <v>15</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7</v>
+      </c>
+      <c r="P12" t="n">
         <v>14</v>
       </c>
-      <c r="I12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J12" t="n">
-        <v>17</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11</v>
-      </c>
-      <c r="L12" t="n">
-        <v>10</v>
-      </c>
-      <c r="M12" t="n">
-        <v>11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" t="n">
-        <v>11</v>
-      </c>
       <c r="Q12" t="n">
+        <v>12</v>
+      </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
+      <c r="S12" t="n">
         <v>14</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>11</v>
-      </c>
-      <c r="T12" t="n">
-        <v>10</v>
       </c>
       <c r="U12" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20 sun jun - 26 sat jun</t>
+          <t>11 sun jul - 17 sat jul</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2944,58 +2944,58 @@
         <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="n">
         <v>13</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>8</v>
       </c>
-      <c r="M13" t="n">
-        <v>11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
       <c r="O13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -3004,62 +3004,62 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27 sun jun - 03 sat jul</t>
+          <t>18 sun jul - 24 sat jul</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>34</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29</v>
+      </c>
+      <c r="E14" t="n">
         <v>37</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>26</v>
       </c>
-      <c r="E14" t="n">
-        <v>35</v>
-      </c>
-      <c r="F14" t="n">
-        <v>28</v>
-      </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
         <v>15</v>
       </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11</v>
-      </c>
       <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="n">
         <v>14</v>
       </c>
-      <c r="L14" t="n">
+      <c r="R14" t="n">
         <v>7</v>
       </c>
-      <c r="M14" t="n">
-        <v>12</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>11</v>
-      </c>
-      <c r="P14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9</v>
-      </c>
-      <c r="R14" t="n">
-        <v>12</v>
-      </c>
       <c r="S14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U14" t="n">
         <v>12</v>
@@ -3074,50 +3074,50 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04 sun jul - 10 sat jul</t>
+          <t>25 sun jul - 31 sat jul</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
+        <v>27</v>
+      </c>
+      <c r="F15" t="n">
         <v>36</v>
       </c>
-      <c r="F15" t="n">
-        <v>27</v>
-      </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>26</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" t="n">
         <v>15</v>
       </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>16</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
       <c r="O15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q15" t="n">
         <v>12</v>
@@ -3126,16 +3126,16 @@
         <v>9</v>
       </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="U15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -3144,68 +3144,68 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11 sun jul - 17 sat jul</t>
+          <t>01 sun aug - 07 sat aug</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39</v>
+      </c>
+      <c r="G16" t="n">
+        <v>18</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
         <v>29</v>
       </c>
-      <c r="F16" t="n">
-        <v>34</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>12</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
         <v>17</v>
       </c>
-      <c r="H16" t="n">
+      <c r="U16" t="n">
+        <v>9</v>
+      </c>
+      <c r="V16" t="n">
         <v>12</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11</v>
-      </c>
-      <c r="M16" t="n">
-        <v>13</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>10</v>
-      </c>
-      <c r="P16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>10</v>
-      </c>
-      <c r="R16" t="n">
-        <v>11</v>
-      </c>
-      <c r="S16" t="n">
-        <v>8</v>
-      </c>
-      <c r="T16" t="n">
-        <v>13</v>
-      </c>
-      <c r="U16" t="n">
-        <v>11</v>
-      </c>
-      <c r="V16" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3214,68 +3214,68 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18 sun jul - 24 sat jul</t>
+          <t>08 sun aug - 14 sat aug</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
+        <v>26</v>
+      </c>
+      <c r="F17" t="n">
         <v>37</v>
       </c>
-      <c r="F17" t="n">
-        <v>26</v>
-      </c>
       <c r="G17" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" t="n">
+        <v>9</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12</v>
+      </c>
+      <c r="O17" t="n">
+        <v>12</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>12</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7</v>
+      </c>
+      <c r="V17" t="n">
         <v>14</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>15</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9</v>
-      </c>
-      <c r="M17" t="n">
-        <v>13</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>9</v>
-      </c>
-      <c r="P17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>14</v>
-      </c>
-      <c r="R17" t="n">
-        <v>7</v>
-      </c>
-      <c r="S17" t="n">
-        <v>11</v>
-      </c>
-      <c r="T17" t="n">
-        <v>10</v>
-      </c>
-      <c r="U17" t="n">
-        <v>12</v>
-      </c>
-      <c r="V17" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -3284,50 +3284,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25 sun jul - 31 sat jul</t>
+          <t>15 sun aug - 21 sat aug</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>33</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36</v>
+      </c>
+      <c r="F18" t="n">
         <v>27</v>
       </c>
-      <c r="D18" t="n">
-        <v>36</v>
-      </c>
-      <c r="E18" t="n">
-        <v>27</v>
-      </c>
-      <c r="F18" t="n">
-        <v>36</v>
-      </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q18" t="n">
         <v>12</v>
@@ -3336,10 +3336,10 @@
         <v>9</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T18" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
         <v>11</v>
@@ -3354,65 +3354,65 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01 sun aug - 04 wed aug</t>
+          <t>22 sun aug - 25 wed aug</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
         <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" t="n">
         <v>7</v>
       </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R19" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" t="n">
         <v>7</v>
       </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>7</v>

--- a/swertres/excel_results_5.xlsx
+++ b/swertres/excel_results_5.xlsx
@@ -2164,68 +2164,68 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28 wed apr - 01 sat may</t>
+          <t>18 sun jul - 24 sat jul</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" t="n">
         <v>15</v>
       </c>
-      <c r="F2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11</v>
-      </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14</v>
+      </c>
+      <c r="R2" t="n">
         <v>7</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
+        <v>11</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U2" t="n">
+        <v>12</v>
+      </c>
+      <c r="V2" t="n">
         <v>9</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
-      <c r="V2" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2234,68 +2234,68 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02 sun may - 08 sat may</t>
+          <t>25 sun jul - 31 sat jul</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
         <v>15</v>
       </c>
-      <c r="J3" t="n">
-        <v>16</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="n">
         <v>12</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>9</v>
       </c>
-      <c r="M3" t="n">
-        <v>12</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>11</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10</v>
-      </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2304,62 +2304,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09 sun may - 15 sat may</t>
+          <t>01 sun aug - 07 sat aug</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="U4" t="n">
         <v>9</v>
@@ -2374,68 +2374,68 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16 sun may - 22 sat may</t>
+          <t>08 sun aug - 14 sat aug</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
         <v>20</v>
       </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13</v>
-      </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
+        <v>9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>12</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7</v>
+      </c>
+      <c r="V5" t="n">
         <v>14</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>16</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>14</v>
-      </c>
-      <c r="S5" t="n">
-        <v>12</v>
-      </c>
-      <c r="T5" t="n">
-        <v>9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>11</v>
-      </c>
-      <c r="V5" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2444,68 +2444,68 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23 sun may - 29 sat may</t>
+          <t>15 sun aug - 21 sat aug</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36</v>
+      </c>
+      <c r="F6" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
-        <v>36</v>
-      </c>
-      <c r="E6" t="n">
-        <v>37</v>
-      </c>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>19</v>
       </c>
       <c r="K6" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>12</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13</v>
+      </c>
+      <c r="T6" t="n">
         <v>8</v>
       </c>
-      <c r="L6" t="n">
-        <v>13</v>
-      </c>
-      <c r="M6" t="n">
-        <v>10</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9</v>
-      </c>
-      <c r="P6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R6" t="n">
-        <v>11</v>
-      </c>
-      <c r="S6" t="n">
-        <v>11</v>
-      </c>
-      <c r="T6" t="n">
-        <v>10</v>
-      </c>
       <c r="U6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="V6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2514,68 +2514,68 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30 sun may - 05 sat jun</t>
+          <t>22 sun aug - 28 sat aug</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
+        <v>17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" t="n">
         <v>13</v>
       </c>
-      <c r="J7" t="n">
-        <v>24</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>14</v>
-      </c>
-      <c r="M7" t="n">
-        <v>12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>9</v>
-      </c>
-      <c r="R7" t="n">
-        <v>12</v>
-      </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2584,68 +2584,68 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>06 sun jun - 12 sat jun</t>
+          <t>29 sun aug - 04 sat sep</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>13</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7</v>
+      </c>
+      <c r="T8" t="n">
         <v>14</v>
       </c>
-      <c r="H8" t="n">
-        <v>15</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>20</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="U8" t="n">
         <v>9</v>
       </c>
-      <c r="N8" t="n">
+      <c r="V8" t="n">
         <v>12</v>
-      </c>
-      <c r="O8" t="n">
-        <v>8</v>
-      </c>
-      <c r="P8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>10</v>
-      </c>
-      <c r="R8" t="n">
-        <v>11</v>
-      </c>
-      <c r="S8" t="n">
-        <v>11</v>
-      </c>
-      <c r="T8" t="n">
-        <v>10</v>
-      </c>
-      <c r="U8" t="n">
-        <v>8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -2654,68 +2654,68 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13 sun jun - 19 sat jun</t>
+          <t>05 sun sep - 11 sat sep</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
         <v>32</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>32</v>
+      </c>
+      <c r="F9" t="n">
         <v>31</v>
       </c>
-      <c r="E9" t="n">
-        <v>35</v>
-      </c>
-      <c r="F9" t="n">
-        <v>28</v>
-      </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
         <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20 sun jun - 26 sat jun</t>
+          <t>12 sun sep - 18 sat sep</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2734,28 +2734,28 @@
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
         <v>11</v>
@@ -2764,22 +2764,22 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
         <v>13</v>
@@ -2794,56 +2794,56 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>27 sun jun - 03 sat jul</t>
+          <t>19 sun sep - 25 sat sep</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>26</v>
+      </c>
+      <c r="D11" t="n">
         <v>37</v>
       </c>
-      <c r="D11" t="n">
-        <v>26</v>
-      </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>24</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13</v>
+      </c>
+      <c r="M11" t="n">
+        <v>14</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="n">
         <v>17</v>
       </c>
-      <c r="J11" t="n">
-        <v>11</v>
-      </c>
-      <c r="K11" t="n">
-        <v>14</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M11" t="n">
-        <v>12</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>11</v>
-      </c>
-      <c r="P11" t="n">
-        <v>10</v>
-      </c>
       <c r="Q11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S11" t="n">
         <v>14</v>
@@ -2852,10 +2852,10 @@
         <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -2864,50 +2864,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04 sun jul - 10 sat jul</t>
+          <t>26 sun sep - 02 sat oct</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" t="n">
         <v>32</v>
       </c>
-      <c r="D12" t="n">
-        <v>31</v>
-      </c>
-      <c r="E12" t="n">
-        <v>36</v>
-      </c>
-      <c r="F12" t="n">
-        <v>27</v>
-      </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
         <v>12</v>
@@ -2916,16 +2916,16 @@
         <v>9</v>
       </c>
       <c r="S12" t="n">
+        <v>12</v>
+      </c>
+      <c r="T12" t="n">
+        <v>9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7</v>
+      </c>
+      <c r="V12" t="n">
         <v>14</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7</v>
-      </c>
-      <c r="U12" t="n">
-        <v>10</v>
-      </c>
-      <c r="V12" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2934,44 +2934,44 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11 sun jul - 17 sat jul</t>
+          <t>03 sun oct - 09 sat oct</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
         <v>33</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>30</v>
       </c>
-      <c r="E13" t="n">
-        <v>29</v>
-      </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
       </c>
       <c r="H13" t="n">
+        <v>13</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13</v>
+      </c>
+      <c r="M13" t="n">
         <v>12</v>
       </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11</v>
-      </c>
-      <c r="M13" t="n">
-        <v>13</v>
-      </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>10</v>
@@ -2980,22 +2980,22 @@
         <v>11</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -3004,68 +3004,68 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18 sun jul - 24 sat jul</t>
+          <t>10 sun oct - 16 sat oct</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q14" t="n">
         <v>12</v>
       </c>
-      <c r="L14" t="n">
+      <c r="R14" t="n">
         <v>9</v>
       </c>
-      <c r="M14" t="n">
+      <c r="S14" t="n">
         <v>13</v>
       </c>
-      <c r="N14" t="n">
+      <c r="T14" t="n">
         <v>8</v>
       </c>
-      <c r="O14" t="n">
-        <v>9</v>
-      </c>
-      <c r="P14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>14</v>
-      </c>
-      <c r="R14" t="n">
-        <v>7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>11</v>
-      </c>
-      <c r="T14" t="n">
-        <v>10</v>
-      </c>
       <c r="U14" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -3074,44 +3074,44 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25 sun jul - 31 sat jul</t>
+          <t>17 sun oct - 23 sat oct</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>10</v>
@@ -3126,16 +3126,16 @@
         <v>9</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -3144,68 +3144,68 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01 sun aug - 07 sat aug</t>
+          <t>24 sun oct - 30 sat oct</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
+        <v>9</v>
+      </c>
+      <c r="P16" t="n">
         <v>12</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
+        <v>14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" t="n">
         <v>9</v>
       </c>
-      <c r="Q16" t="n">
-        <v>11</v>
-      </c>
-      <c r="R16" t="n">
-        <v>10</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
       <c r="T16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="U16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="V16" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -3214,56 +3214,56 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08 sun aug - 14 sat aug</t>
+          <t>31 sun oct - 06 sat nov</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H17" t="n">
+        <v>22</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>17</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" t="n">
         <v>15</v>
       </c>
-      <c r="H17" t="n">
-        <v>11</v>
-      </c>
-      <c r="I17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J17" t="n">
-        <v>20</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11</v>
-      </c>
-      <c r="L17" t="n">
-        <v>10</v>
-      </c>
-      <c r="M17" t="n">
-        <v>9</v>
-      </c>
-      <c r="N17" t="n">
-        <v>12</v>
-      </c>
       <c r="O17" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -3272,10 +3272,10 @@
         <v>11</v>
       </c>
       <c r="U17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15 sun aug - 21 sat aug</t>
+          <t>07 sun nov - 13 sat nov</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3294,46 +3294,46 @@
         <v>30</v>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13</v>
+      </c>
+      <c r="N18" t="n">
         <v>8</v>
       </c>
-      <c r="J18" t="n">
-        <v>19</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="O18" t="n">
+        <v>9</v>
+      </c>
+      <c r="P18" t="n">
         <v>12</v>
       </c>
-      <c r="L18" t="n">
+      <c r="Q18" t="n">
         <v>9</v>
       </c>
-      <c r="M18" t="n">
-        <v>9</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="R18" t="n">
         <v>12</v>
-      </c>
-      <c r="O18" t="n">
-        <v>12</v>
-      </c>
-      <c r="P18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>12</v>
-      </c>
-      <c r="R18" t="n">
-        <v>9</v>
       </c>
       <c r="S18" t="n">
         <v>13</v>
@@ -3342,10 +3342,10 @@
         <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -3354,68 +3354,68 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22 sun aug - 25 wed aug</t>
+          <t>14 sun nov - 14 sun nov</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/swertres/excel_results_5.xlsx
+++ b/swertres/excel_results_5.xlsx
@@ -2164,68 +2164,68 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18 sun jul - 24 sat jul</t>
+          <t>10 fri dec - 11 sat dec</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2234,33 +2234,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25 sun jul - 31 sat jul</t>
+          <t>12 sun dec - 18 sat dec</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
         <v>17</v>
       </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>26</v>
-      </c>
       <c r="K3" t="n">
         <v>11</v>
       </c>
@@ -2268,34 +2268,34 @@
         <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>11</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9</v>
+      </c>
+      <c r="V3" t="n">
         <v>12</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>17</v>
-      </c>
-      <c r="U3" t="n">
-        <v>11</v>
-      </c>
-      <c r="V3" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2304,68 +2304,68 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01 sun aug - 07 sat aug</t>
+          <t>19 sun dec - 25 sat dec</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2374,68 +2374,68 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>08 sun aug - 14 sat aug</t>
+          <t>26 sun dec - 01 sat jan</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
       </c>
       <c r="T5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15 sun aug - 21 sat aug</t>
+          <t>02 sun jan - 08 sat jan</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2454,34 +2454,34 @@
         <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
         <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
         <v>19</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>12</v>
@@ -2490,22 +2490,22 @@
         <v>9</v>
       </c>
       <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11</v>
+      </c>
+      <c r="S6" t="n">
         <v>12</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>9</v>
       </c>
-      <c r="S6" t="n">
-        <v>13</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8</v>
-      </c>
       <c r="U6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2514,68 +2514,68 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22 sun aug - 28 sat aug</t>
+          <t>09 sun jan - 15 sat jan</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" t="n">
         <v>14</v>
       </c>
-      <c r="I7" t="n">
-        <v>17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>19</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11</v>
-      </c>
-      <c r="L7" t="n">
-        <v>10</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10</v>
-      </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>14</v>
+      </c>
+      <c r="U7" t="n">
         <v>9</v>
       </c>
-      <c r="P7" t="n">
+      <c r="V7" t="n">
         <v>12</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>13</v>
-      </c>
-      <c r="S7" t="n">
-        <v>11</v>
-      </c>
-      <c r="T7" t="n">
-        <v>10</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2584,68 +2584,68 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29 sun aug - 04 sat sep</t>
+          <t>16 sun jan - 22 sat jan</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8</v>
+      </c>
+      <c r="N8" t="n">
         <v>13</v>
       </c>
-      <c r="H8" t="n">
-        <v>11</v>
-      </c>
-      <c r="I8" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" t="n">
         <v>13</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
+      <c r="S8" t="n">
+        <v>13</v>
+      </c>
+      <c r="T8" t="n">
         <v>8</v>
       </c>
-      <c r="M8" t="n">
-        <v>10</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>13</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>14</v>
-      </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -2654,68 +2654,68 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>05 sun sep - 11 sat sep</t>
+          <t>23 sun jan - 29 sat jan</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>28</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" t="n">
         <v>12</v>
       </c>
-      <c r="I9" t="n">
-        <v>11</v>
-      </c>
-      <c r="J9" t="n">
-        <v>20</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" t="n">
-        <v>11</v>
-      </c>
-      <c r="M9" t="n">
-        <v>10</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
       <c r="O9" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -2724,38 +2724,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12 sun sep - 18 sat sep</t>
+          <t>30 sun jan - 05 sat feb</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
+        <v>13</v>
+      </c>
+      <c r="I10" t="n">
         <v>17</v>
       </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
         <v>11</v>
@@ -2770,16 +2770,16 @@
         <v>10</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S10" t="n">
+        <v>7</v>
+      </c>
+      <c r="T10" t="n">
         <v>14</v>
-      </c>
-      <c r="T10" t="n">
-        <v>7</v>
       </c>
       <c r="U10" t="n">
         <v>13</v>
@@ -2794,38 +2794,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19 sun sep - 25 sat sep</t>
+          <t>06 sun feb - 12 sat feb</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25</v>
+      </c>
+      <c r="G11" t="n">
         <v>26</v>
       </c>
-      <c r="D11" t="n">
-        <v>37</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32</v>
-      </c>
-      <c r="F11" t="n">
-        <v>31</v>
-      </c>
-      <c r="G11" t="n">
-        <v>19</v>
-      </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
         <v>14</v>
@@ -2834,28 +2834,28 @@
         <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P11" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2864,45 +2864,45 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>26 sun sep - 02 sat oct</t>
+          <t>13 sun feb - 19 sat feb</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
+        <v>32</v>
+      </c>
+      <c r="F12" t="n">
         <v>31</v>
       </c>
-      <c r="F12" t="n">
-        <v>32</v>
-      </c>
       <c r="G12" t="n">
+        <v>21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
         <v>17</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>14</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
+        <v>14</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
         <v>13</v>
       </c>
-      <c r="J12" t="n">
-        <v>19</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>8</v>
       </c>
-      <c r="L12" t="n">
-        <v>13</v>
-      </c>
-      <c r="M12" t="n">
-        <v>11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
       <c r="O12" t="n">
         <v>11</v>
       </c>
@@ -2910,22 +2910,22 @@
         <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2934,32 +2934,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>03 sun oct - 09 sat oct</t>
+          <t>20 sun feb - 26 sat feb</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
         <v>8</v>
@@ -2968,11 +2968,11 @@
         <v>13</v>
       </c>
       <c r="M13" t="n">
+        <v>9</v>
+      </c>
+      <c r="N13" t="n">
         <v>12</v>
       </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
       <c r="O13" t="n">
         <v>10</v>
       </c>
@@ -2980,22 +2980,22 @@
         <v>11</v>
       </c>
       <c r="Q13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3004,39 +3004,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10 sun oct - 16 sat oct</t>
+          <t>27 sun feb - 05 sat mar</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
+        <v>18</v>
+      </c>
+      <c r="H14" t="n">
         <v>17</v>
       </c>
-      <c r="H14" t="n">
-        <v>13</v>
-      </c>
       <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>20</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="n">
         <v>15</v>
       </c>
-      <c r="J14" t="n">
-        <v>18</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10</v>
-      </c>
       <c r="M14" t="n">
         <v>11</v>
       </c>
@@ -3044,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="n">
         <v>12</v>
@@ -3056,16 +3056,16 @@
         <v>9</v>
       </c>
       <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="n">
+        <v>11</v>
+      </c>
+      <c r="U14" t="n">
         <v>13</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>8</v>
-      </c>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -3074,14 +3074,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17 sun oct - 23 sat oct</t>
+          <t>06 sun mar - 12 sat mar</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -3090,10 +3090,10 @@
         <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
         <v>15</v>
@@ -3102,40 +3102,40 @@
         <v>18</v>
       </c>
       <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
         <v>12</v>
       </c>
-      <c r="L15" t="n">
+      <c r="P15" t="n">
         <v>9</v>
       </c>
-      <c r="M15" t="n">
+      <c r="Q15" t="n">
+        <v>7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>14</v>
+      </c>
+      <c r="S15" t="n">
+        <v>11</v>
+      </c>
+      <c r="T15" t="n">
+        <v>10</v>
+      </c>
+      <c r="U15" t="n">
         <v>12</v>
       </c>
-      <c r="N15" t="n">
+      <c r="V15" t="n">
         <v>9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>12</v>
-      </c>
-      <c r="R15" t="n">
-        <v>9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>9</v>
-      </c>
-      <c r="T15" t="n">
-        <v>12</v>
-      </c>
-      <c r="U15" t="n">
-        <v>9</v>
-      </c>
-      <c r="V15" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -3144,29 +3144,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>24 sun oct - 30 sat oct</t>
+          <t>13 sun mar - 19 sat mar</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>35</v>
+      </c>
+      <c r="D16" t="n">
+        <v>28</v>
+      </c>
+      <c r="E16" t="n">
         <v>34</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>29</v>
       </c>
-      <c r="E16" t="n">
-        <v>37</v>
-      </c>
-      <c r="F16" t="n">
-        <v>26</v>
-      </c>
       <c r="G16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" t="n">
+        <v>13</v>
+      </c>
+      <c r="I16" t="n">
         <v>14</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
       </c>
       <c r="J16" t="n">
         <v>15</v>
@@ -3178,34 +3178,34 @@
         <v>9</v>
       </c>
       <c r="M16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
+        <v>14</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>12</v>
+      </c>
+      <c r="R16" t="n">
         <v>9</v>
       </c>
-      <c r="P16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>14</v>
-      </c>
-      <c r="R16" t="n">
-        <v>7</v>
-      </c>
       <c r="S16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3214,56 +3214,56 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31 sun oct - 06 sat nov</t>
+          <t>20 sun mar - 26 sat mar</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
         <v>22</v>
       </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>17</v>
-      </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -3272,10 +3272,10 @@
         <v>11</v>
       </c>
       <c r="U17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07 sun nov - 13 sat nov</t>
+          <t>27 sun mar - 02 sat apr</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3294,34 +3294,34 @@
         <v>30</v>
       </c>
       <c r="E18" t="n">
+        <v>29</v>
+      </c>
+      <c r="F18" t="n">
         <v>34</v>
       </c>
-      <c r="F18" t="n">
-        <v>29</v>
-      </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
+        <v>13</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>17</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11</v>
+      </c>
+      <c r="M18" t="n">
         <v>14</v>
       </c>
-      <c r="I18" t="n">
-        <v>13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>16</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11</v>
-      </c>
-      <c r="L18" t="n">
-        <v>10</v>
-      </c>
-      <c r="M18" t="n">
-        <v>13</v>
-      </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>9</v>
@@ -3330,22 +3330,22 @@
         <v>12</v>
       </c>
       <c r="Q18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11</v>
+      </c>
+      <c r="U18" t="n">
         <v>13</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>8</v>
-      </c>
-      <c r="U18" t="n">
-        <v>12</v>
-      </c>
-      <c r="V18" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -3354,68 +3354,68 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14 sun nov - 14 sun nov</t>
+          <t>03 sun apr - 08 fri apr</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
